--- a/biology/Origine et évolution du vivant/Analogie_(évolution)/Analogie_(évolution).xlsx
+++ b/biology/Origine et évolution du vivant/Analogie_(évolution)/Analogie_(évolution).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Analogie_(%C3%A9volution)</t>
+          <t>Analogie_(évolution)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En biologie de l'évolution, une analogie désigne une similarité entre deux traits (en général, anatomiques) remplissant les mêmes fonctions biologiques, observés chez deux espèces différentes, qui n'est pas liée à un héritage évolutif commun. Ces deux traits sont alors dits analogues.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Analogie_(%C3%A9volution)</t>
+          <t>Analogie_(évolution)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le cas, par exemple, de l'aile d'une chauve-souris et de celle d'un papillon : toutes deux permettent à l'animal de voler, mais, évolutionnairement, les ailes de la chauve-souris, qui est un mammifère, dérivent des membres antérieurs des vertébrés, alors que les ailes du papillon, qui est un insecte, sont des membranes cuticulaires formées par la juxtaposition de deux couches épidermiques. Le dernier ancêtre commun de ces deux groupes était dépourvu d'ailes puisqu'il ressemblait à un ver. Ainsi, les ailes sont apparues indépendamment et de deux manières différentes dans ces deux groupes. C'est ce qu'on appelle une analogie par convergence évolutive ou homoplasie. Dans ce cas, les deux organes sont dits hétérologues.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Analogie_(%C3%A9volution)</t>
+          <t>Analogie_(évolution)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Homologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux structures anatomiques liées à un héritage commun sont dites homologues. Deux structures anatomiques peuvent être à la fois analogues et homologues. L'exemple des ailes de trois vertébrés amniotes, le Ptérosaure, la Chauve-souris et l'Oiseau, représente une analogie fonctionnelle (l'aile surface portante pour le vol) et une homologie structurale (le membre chiridien antérieur des vertébrés tétrapodes).
 </t>
